--- a/Lamia/DBASE/create/Base2_digue_0_3.xlsx
+++ b/Lamia/DBASE/create/Base2_digue_0_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300" tabRatio="774" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="28275" windowHeight="12300" tabRatio="774" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="794">
   <si>
     <t>00_Basedonnees</t>
   </si>
@@ -2403,6 +2403,9 @@
   </si>
   <si>
     <t>PPE</t>
+  </si>
+  <si>
+    <t>Non visitable -immergé</t>
   </si>
 </sst>
 </file>
@@ -3700,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
@@ -6441,10 +6444,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6452,9 +6455,12 @@
     <col min="1" max="1" width="29.5703125" style="5" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="44.5703125" style="5" customWidth="1"/>
-    <col min="5" max="7" width="18.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="5" customWidth="1"/>
     <col min="8" max="8" width="42.140625" style="5" customWidth="1"/>
-    <col min="9" max="10" width="18.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="16" customWidth="1"/>
     <col min="11" max="11" width="42.140625" style="16" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="5"/>
   </cols>
@@ -8102,275 +8108,251 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="G91" s="5">
+        <v>3</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="J91" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G92" s="5">
         <v>0</v>
       </c>
-      <c r="I91" s="16" t="s">
+      <c r="H92" s="5"/>
+      <c r="I92" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="J91" s="16">
+      <c r="J92" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+    <row r="93" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I92" s="16" t="s">
+      <c r="I94" s="16" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F93" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="J93" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F94" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I94" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="J94" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F95" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F96" s="5" t="s">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>375</v>
+        <v>98</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F97" s="5" t="s">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F98" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F99" s="5" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>108</v>
+        <v>376</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>95</v>
+        <v>377</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K100" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F101" s="5" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>377</v>
+        <v>108</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="F102" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K102" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F103" s="5" t="s">
-        <v>118</v>
+        <v>377</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>118</v>
+        <v>377</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="K103" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F104" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K104" s="16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F105" s="5" t="s">
-        <v>378</v>
+        <v>118</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>378</v>
+        <v>118</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>379</v>
+        <v>119</v>
       </c>
       <c r="K105" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F106" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K106" s="16" t="s">
         <v>123</v>
@@ -8378,121 +8360,161 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F107" s="5" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>128</v>
+        <v>378</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="K107" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F108" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F109" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F110" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F111" s="5" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>136</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K111" s="16" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="F112" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F113" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I113" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D114" s="7" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
